--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GF_HybridCLR\AAAGameData\Languages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\Languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27FB5F-DA67-4F4E-88AC-01C7EA57985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anonymous</author>
   </authors>
@@ -62,12 +63,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>BRAKE</t>
   </si>
   <si>
-    <t>中止</t>
+    <t>刹车</t>
   </si>
   <si>
     <t>ENGINE</t>
@@ -82,18 +83,6 @@
     <t>获取</t>
   </si>
   <si>
-    <t>HelloWorld!</t>
-  </si>
-  <si>
-    <t>你好世界!</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>主页</t>
-  </si>
-  <si>
     <t>Level.DisplayName1</t>
   </si>
   <si>
@@ -130,18 +119,54 @@
     <t>点击开始</t>
   </si>
   <si>
-    <t>RATE US</t>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>未实现</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>RatingDialog.CancelTxt</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>RatingDialog.Description</t>
+  </si>
+  <si>
+    <t>喜欢这款游戏吗?\n请给个5星好评吧!</t>
+  </si>
+  <si>
+    <t>RatingDialog.HighRatingTips</t>
+  </si>
+  <si>
+    <t>感谢您的肯定! 我们将再接再厉!</t>
+  </si>
+  <si>
+    <t>RatingDialog.LowRatingTips</t>
+  </si>
+  <si>
+    <t>感谢您的评价,我们尽力完善优化!</t>
+  </si>
+  <si>
+    <t>RatingDialog.RateTxt</t>
   </si>
   <si>
     <t>评星</t>
   </si>
   <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
     <t>RETRY</t>
   </si>
   <si>
@@ -154,12 +179,54 @@
     <t>复活</t>
   </si>
   <si>
-    <t>SETTINGS</t>
+    <t>Settings.Help</t>
+  </si>
+  <si>
+    <t>帮助/反馈</t>
+  </si>
+  <si>
+    <t>Settings.Language</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Settings.Music</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>Settings.Privacy</t>
+  </si>
+  <si>
+    <t>隐私协议</t>
+  </si>
+  <si>
+    <t>Settings.Rating</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>Settings.SFX</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Settings.Title</t>
   </si>
   <si>
     <t>设置</t>
   </si>
   <si>
+    <t>Settings.Vibrate</t>
+  </si>
+  <si>
+    <t>震动</t>
+  </si>
+  <si>
     <t>SHOP</t>
   </si>
   <si>
@@ -167,6 +234,15 @@
   </si>
   <si>
     <t>STEERING</t>
+  </si>
+  <si>
+    <t>驾驶</t>
+  </si>
+  <si>
+    <t>TermsOfService</t>
+  </si>
+  <si>
+    <t>服务条款</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -178,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -276,7 +352,55 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -767,2130 +891,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -2907,10 +907,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1044">
+            <xdr:cNvPr hidden="1" name="A1" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2993,10 +993,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1045">
+            <xdr:cNvPr hidden="1" name="A2" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3079,10 +1079,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1046">
+            <xdr:cNvPr hidden="1" name="A3" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3165,10 +1165,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1047">
+            <xdr:cNvPr hidden="1" name="A4" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3251,10 +1251,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1048">
+            <xdr:cNvPr hidden="1" name="A5" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3337,10 +1337,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1049">
+            <xdr:cNvPr hidden="1" name="A6" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3423,10 +1423,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1050">
+            <xdr:cNvPr hidden="1" name="A7" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3509,10 +1509,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1051">
+            <xdr:cNvPr hidden="1" name="A8" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3595,10 +1595,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1052">
+            <xdr:cNvPr hidden="1" name="A9" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3681,10 +1681,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1053">
+            <xdr:cNvPr hidden="1" name="A10" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3767,10 +1767,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1054">
+            <xdr:cNvPr hidden="1" name="A11" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3853,10 +1853,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1055">
+            <xdr:cNvPr hidden="1" name="A12" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3939,10 +1939,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1056">
+            <xdr:cNvPr hidden="1" name="A13" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4025,10 +2025,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1057">
+            <xdr:cNvPr hidden="1" name="A14" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4111,10 +2111,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1058">
+            <xdr:cNvPr hidden="1" name="A15" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4197,10 +2197,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1059">
+            <xdr:cNvPr hidden="1" name="A16" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4283,10 +2283,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1060">
+            <xdr:cNvPr hidden="1" name="A17" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4369,10 +2369,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1061">
+            <xdr:cNvPr hidden="1" name="A18" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4455,10 +2455,1042 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1062">
+            <xdr:cNvPr hidden="1" name="A19" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A20" id="1075">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A21" id="1076">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A22" id="1077">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A23" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A24" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1080">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A27" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1083">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1084">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A30" id="1085">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A31" id="1086">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4789,18 +3821,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
+    <col min="3" max="3" width="38.6902858189174" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4962,16 +3994,124 @@
         <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4979,14 +4119,14 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId617" name="A1">
+            <control shapeId="1056" r:id="rId116" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5008,7 +4148,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId618" name="A2">
+            <control shapeId="1057" r:id="rId117" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5030,7 +4170,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId619" name="A3">
+            <control shapeId="1058" r:id="rId118" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5052,7 +4192,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId620" name="A4">
+            <control shapeId="1059" r:id="rId119" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5074,7 +4214,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId621" name="A5">
+            <control shapeId="1060" r:id="rId120" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5096,7 +4236,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId622" name="A6">
+            <control shapeId="1061" r:id="rId121" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5118,7 +4258,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId623" name="A7">
+            <control shapeId="1062" r:id="rId122" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5140,7 +4280,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId624" name="A8">
+            <control shapeId="1063" r:id="rId123" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5162,7 +4302,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId625" name="A9">
+            <control shapeId="1064" r:id="rId124" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5184,7 +4324,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId626" name="A10">
+            <control shapeId="1065" r:id="rId125" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5206,7 +4346,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId627" name="A11">
+            <control shapeId="1066" r:id="rId126" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5228,7 +4368,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId628" name="A12">
+            <control shapeId="1067" r:id="rId127" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5250,7 +4390,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId629" name="A13">
+            <control shapeId="1068" r:id="rId128" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5272,7 +4412,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId630" name="A14">
+            <control shapeId="1069" r:id="rId129" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5294,7 +4434,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId631" name="A15">
+            <control shapeId="1070" r:id="rId130" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5316,7 +4456,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId632" name="A16">
+            <control shapeId="1071" r:id="rId131" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5338,7 +4478,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId633" name="A17">
+            <control shapeId="1072" r:id="rId132" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5360,7 +4500,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId634" name="A18">
+            <control shapeId="1073" r:id="rId133" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5382,7 +4522,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId635" name="A19">
+            <control shapeId="1074" r:id="rId134" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5395,6 +4535,270 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId135" name="A20">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId136" name="A21">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId137" name="A22">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId138" name="A23">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId139" name="A24">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId140" name="A25">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId141" name="A26">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId142" name="A27">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId143" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId144" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId145" name="A30">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId146" name="A31">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -77,10 +77,16 @@
     <t>引擎</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>获取</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>游戏失败</t>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
+  </si>
+  <si>
+    <t>返回</t>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -167,18 +173,6 @@
     <t>评星</t>
   </si>
   <si>
-    <t>RETRY</t>
-  </si>
-  <si>
-    <t>重试</t>
-  </si>
-  <si>
-    <t>REVIVE</t>
-  </si>
-  <si>
-    <t>复活</t>
-  </si>
-  <si>
     <t>Settings.Help</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
   </si>
   <si>
     <t>解锁</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>游戏胜利</t>
   </si>
 </sst>
 </file>
@@ -430,6 +430,130 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
     <mc:Fallback/>
@@ -4126,7 +4250,7 @@
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId116" name="A1">
+            <control shapeId="1056" r:id="rId146" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4148,7 +4272,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId117" name="A2">
+            <control shapeId="1057" r:id="rId147" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4170,7 +4294,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId118" name="A3">
+            <control shapeId="1058" r:id="rId148" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4192,7 +4316,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId119" name="A4">
+            <control shapeId="1059" r:id="rId149" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4214,7 +4338,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId120" name="A5">
+            <control shapeId="1060" r:id="rId150" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4236,7 +4360,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId121" name="A6">
+            <control shapeId="1061" r:id="rId151" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4258,7 +4382,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId122" name="A7">
+            <control shapeId="1062" r:id="rId152" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4280,7 +4404,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId123" name="A8">
+            <control shapeId="1063" r:id="rId153" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4302,7 +4426,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId124" name="A9">
+            <control shapeId="1064" r:id="rId154" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4324,7 +4448,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId125" name="A10">
+            <control shapeId="1065" r:id="rId155" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4346,7 +4470,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId126" name="A11">
+            <control shapeId="1066" r:id="rId156" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4368,7 +4492,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId127" name="A12">
+            <control shapeId="1067" r:id="rId157" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4390,7 +4514,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId128" name="A13">
+            <control shapeId="1068" r:id="rId158" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4412,7 +4536,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId129" name="A14">
+            <control shapeId="1069" r:id="rId159" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4434,7 +4558,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId130" name="A15">
+            <control shapeId="1070" r:id="rId160" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4456,7 +4580,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId131" name="A16">
+            <control shapeId="1071" r:id="rId161" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4478,7 +4602,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId132" name="A17">
+            <control shapeId="1072" r:id="rId162" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4500,7 +4624,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId133" name="A18">
+            <control shapeId="1073" r:id="rId163" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4522,7 +4646,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId134" name="A19">
+            <control shapeId="1074" r:id="rId164" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4544,7 +4668,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId135" name="A20">
+            <control shapeId="1075" r:id="rId165" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4566,7 +4690,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId136" name="A21">
+            <control shapeId="1076" r:id="rId166" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4588,7 +4712,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId137" name="A22">
+            <control shapeId="1077" r:id="rId167" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4610,7 +4734,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId138" name="A23">
+            <control shapeId="1078" r:id="rId168" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4632,7 +4756,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId139" name="A24">
+            <control shapeId="1079" r:id="rId169" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4654,7 +4778,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId140" name="A25">
+            <control shapeId="1080" r:id="rId170" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4676,7 +4800,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId141" name="A26">
+            <control shapeId="1081" r:id="rId171" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4698,7 +4822,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId142" name="A27">
+            <control shapeId="1082" r:id="rId172" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4720,7 +4844,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId143" name="A28">
+            <control shapeId="1083" r:id="rId173" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4742,7 +4866,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId144" name="A29">
+            <control shapeId="1084" r:id="rId174" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4764,7 +4888,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId145" name="A30">
+            <control shapeId="1085" r:id="rId175" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4786,7 +4910,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId146" name="A31">
+            <control shapeId="1086" r:id="rId176" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
